--- a/biology/Botanique/Sidney_Frederick_Glassman/Sidney_Frederick_Glassman.xlsx
+++ b/biology/Botanique/Sidney_Frederick_Glassman/Sidney_Frederick_Glassman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sidney Frederick Glassman (1919-2008) est un botaniste, pteridologue américain, qui réalise des expéditions botaniques importantes au Brésil, au Honduras, et dans les Philippines [1],[2] . Il a pu travailler ainsi sur de nombreux genres de palmiers.
-En 1942 il obtient son M.A. [3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sidney Frederick Glassman (1919-2008) est un botaniste, pteridologue américain, qui réalise des expéditions botaniques importantes au Brésil, au Honduras, et dans les Philippines , . Il a pu travailler ainsi sur de nombreux genres de palmiers.
+En 1942 il obtient son M.A. .
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>bror eric Dahlgren, sidney frederick Glassman. 1972. À Revision of B.Et. Dahlgren'S Index of American Palms. 294 pp.</t>
         </is>
